--- a/miscs/excel/003.european.xlsx
+++ b/miscs/excel/003.european.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\miscs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27721A15-B926-419D-9BEA-4FB6D96912FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F927AC3E-1875-4B94-8F2F-733A4884E43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="script（european）" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>spot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,11 +95,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>call pays max(spot() - 120, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRIKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call pays max(spot() - STRIKE, 0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,6 +207,18 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -517,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE6A4A-66D2-4572-A414-C53951A20964}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,7 +573,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" cm="1">
-        <f t="array" aca="1" ref="A3" ca="1">_xll.EVALUATIONDATE.SET(A2)</f>
+        <f t="array" ref="A3">_xll.EVALUATIONDATE.SET(A2)</f>
         <v>44829</v>
       </c>
       <c r="B3" s="2"/>
@@ -592,13 +612,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="A7" ca="1">_xll.PRODUCT.NEW("my_product",A17:A17,B17:B17)</f>
-        <v>~ScriptProduct~my_product~000001EF7D168270</v>
+        <f t="array" ref="A7">_xll.PRODUCT.NEW("my_product",A17:A18,B17:B18)</f>
+        <v>~ScriptProduct~my_product~0000028F1919D680</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData_~model~000001EF7D11A210</v>
+        <f t="array" ref="C7">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
+        <v>~BSModelData_~model~0000028F1981BAF0</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -618,60 +638,51 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f t="array" aca="1" ref="A10:B14" ca="1">_xll.MONTECARLO.VALUE(A7,C7,2^20,"sobol",FALSE,TRUE,0.5)</f>
+        <f t="array" ref="A10:B14">_xll.MONTECARLO.VALUE(A7,C7,2^16,"sobol",FALSE,TRUE,0.5)</f>
         <v>d_div</v>
       </c>
       <c r="B10" s="6">
-        <f ca="1"/>
-        <v>-85.228968760590504</v>
+        <v>-85.104778261658169</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f ca="1"/>
         <v>d_rate</v>
       </c>
       <c r="B11" s="6">
-        <f ca="1"/>
-        <v>73.101060841181422</v>
+        <v>73.004150390624972</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f ca="1"/>
         <v>d_spot</v>
       </c>
       <c r="B12" s="6">
-        <f ca="1"/>
-        <v>0.28383735034320745</v>
+        <v>0.28368259420552716</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f ca="1"/>
         <v>d_vol</v>
       </c>
       <c r="B13" s="6">
-        <f ca="1"/>
-        <v>58.713972010956184</v>
+        <v>58.657467277166376</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f ca="1"/>
         <v>value</v>
       </c>
       <c r="B14" s="6">
-        <f ca="1"/>
-        <v>4.0389474366644285</v>
+        <v>4.0335426236777412</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -690,114 +701,104 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>45925</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="C17:C33" ca="1">_xll.PRODUCT.DEBUG(A7)</f>
+        <f t="array" ref="C17:C33">_xll.PRODUCT.DEBUG(A7)</f>
         <v>Var[0] = call</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>45924</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="C18" t="str">
-        <f ca="1"/>
         <v>Event_: 1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C19" t="str">
-        <f ca="1"/>
         <v>Statement_: 1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C20" t="str">
-        <f ca="1"/>
         <v>PAYS(</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C21" t="str">
-        <f ca="1"/>
         <v xml:space="preserve">	VAR[call,0]</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C22" t="str">
-        <f ca="1"/>
         <v>,</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C23" t="str">
-        <f ca="1"/>
         <v xml:space="preserve">	MAX(</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C24" t="str">
-        <f ca="1"/>
         <v xml:space="preserve">		SUBTRACT(</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C25" t="str">
-        <f ca="1"/>
         <v xml:space="preserve">			SPOT</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C26" t="str">
-        <f ca="1"/>
         <v xml:space="preserve">		,</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C27" t="str">
-        <f ca="1"/>
         <v xml:space="preserve">			CONST[120.000000]</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C28" t="str">
-        <f ca="1"/>
         <v xml:space="preserve">		)</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C29" t="str">
-        <f ca="1"/>
         <v xml:space="preserve">	,</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C30" t="str">
-        <f ca="1"/>
         <v xml:space="preserve">		CONST[0.000000]</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C31" t="str">
-        <f ca="1"/>
         <v xml:space="preserve">	)</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C32" t="str">
-        <f ca="1"/>
         <v>)</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" t="str">
-        <f ca="1"/>
         <v/>
       </c>
     </row>

--- a/miscs/excel/003.european.xlsx
+++ b/miscs/excel/003.european.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F927AC3E-1875-4B94-8F2F-733A4884E43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDCDC9-8161-406F-9539-8CF870BB4BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="script（european）" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -147,18 +147,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,31 +189,31 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,18 +531,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE6A4A-66D2-4572-A414-C53951A20964}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="58.375" customWidth="1"/>
-    <col min="3" max="3" width="38.875" customWidth="1"/>
-    <col min="4" max="4" width="35.75" customWidth="1"/>
+    <col min="1" max="1" width="22.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="58.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -586,7 +583,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -611,14 +608,14 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="str" cm="1">
+      <c r="A7" s="2" t="str" cm="1">
         <f t="array" ref="A7">_xll.PRODUCT.NEW("my_product",A17:A18,B17:B18)</f>
-        <v>~ScriptProduct~my_product~0000028F1919D680</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="str" cm="1">
+        <v>~ScriptProduct~my_product~000001BE2DF79830</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="str" cm="1">
         <f t="array" ref="C7">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData_~model~0000028F1981BAF0</v>
+        <v>~BSModelData_~model~000001BDEBD9A160</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -638,11 +635,11 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f t="array" ref="A10:B14">_xll.MONTECARLO.VALUE(A7,C7,2^16,"sobol",FALSE,TRUE,0.5)</f>
+        <f t="array" ref="A10:B14">_xll.MONTECARLO.VALUE(A7,C7,2^13,"sobol",FALSE,TRUE,0.5)</f>
         <v>d_div</v>
       </c>
       <c r="B10" s="6">
-        <v>-85.104778261658169</v>
+        <v>-85.06871127991225</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
@@ -652,7 +649,7 @@
         <v>d_rate</v>
       </c>
       <c r="B11" s="6">
-        <v>73.004150390624972</v>
+        <v>72.993164062499986</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -662,7 +659,7 @@
         <v>d_spot</v>
       </c>
       <c r="B12" s="6">
-        <v>0.28368259420552716</v>
+        <v>0.28356237093303999</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -672,7 +669,7 @@
         <v>d_vol</v>
       </c>
       <c r="B13" s="6">
-        <v>58.657467277166376</v>
+        <v>58.563372397962496</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -682,7 +679,7 @@
         <v>value</v>
       </c>
       <c r="B14" s="6">
-        <v>4.0335426236777412</v>
+        <v>4.0251824058040864</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -712,8 +709,8 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="str" cm="1">
-        <f t="array" ref="C17:C33">_xll.PRODUCT.DEBUG(A7)</f>
-        <v>Var[0] = call</v>
+        <f t="array" ref="C17:C32">_xll.PRODUCT.DEBUG(A7)</f>
+        <v>EventTime_: 2025-09-24	Event_: 1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -723,82 +720,77 @@
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="str">
-        <v>Event_: 1</v>
+      <c r="C18" s="3" t="str">
+        <v>Statement_: 1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C19" t="str">
-        <v>Statement_: 1</v>
+      <c r="C19" s="3" t="str">
+        <v>PAYS(</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C20" t="str">
-        <v>PAYS(</v>
+      <c r="C20" s="3" t="str">
+        <v xml:space="preserve">	VAR[call,-1]</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C21" t="str">
-        <v xml:space="preserve">	VAR[call,0]</v>
+      <c r="C21" s="3" t="str">
+        <v>,</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C22" t="str">
-        <v>,</v>
+      <c r="C22" s="3" t="str">
+        <v xml:space="preserve">	MAX(</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C23" t="str">
-        <v xml:space="preserve">	MAX(</v>
+      <c r="C23" s="3" t="str">
+        <v xml:space="preserve">		SUBTRACT(</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C24" t="str">
-        <v xml:space="preserve">		SUBTRACT(</v>
+      <c r="C24" s="3" t="str">
+        <v xml:space="preserve">			SPOT</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C25" t="str">
-        <v xml:space="preserve">			SPOT</v>
+      <c r="C25" s="3" t="str">
+        <v xml:space="preserve">		,</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C26" t="str">
-        <v xml:space="preserve">		,</v>
+      <c r="C26" s="3" t="str">
+        <v xml:space="preserve">			CONST[120.000000]</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C27" t="str">
-        <v xml:space="preserve">			CONST[120.000000]</v>
+      <c r="C27" s="3" t="str">
+        <v xml:space="preserve">		)</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C28" t="str">
-        <v xml:space="preserve">		)</v>
+      <c r="C28" s="3" t="str">
+        <v xml:space="preserve">	,</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C29" t="str">
-        <v xml:space="preserve">	,</v>
+      <c r="C29" s="3" t="str">
+        <v xml:space="preserve">		CONST[0.000000]</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C30" t="str">
-        <v xml:space="preserve">		CONST[0.000000]</v>
+      <c r="C30" s="3" t="str">
+        <v xml:space="preserve">	)</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C31" t="str">
-        <v xml:space="preserve">	)</v>
+      <c r="C31" s="3" t="str">
+        <v>)</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C32" t="str">
-        <v>)</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" t="str">
+      <c r="C32" s="3" t="str">
         <v/>
       </c>
     </row>

--- a/miscs/excel/003.european.xlsx
+++ b/miscs/excel/003.european.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDCDC9-8161-406F-9539-8CF870BB4BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E811B-918F-4B3B-B613-E905CE4903F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="script（european）" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -610,12 +610,12 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str" cm="1">
         <f t="array" ref="A7">_xll.PRODUCT.NEW("my_product",A17:A18,B17:B18)</f>
-        <v>~ScriptProduct~my_product~000001BE2DF79830</v>
+        <v>~ScriptProduct~my_product~000002B3F3A291F0</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" ref="C7">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData_~model~000001BDEBD9A160</v>
+        <v>~BSModelData_~model~000002B3F4532E50</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -639,7 +639,7 @@
         <v>d_div</v>
       </c>
       <c r="B10" s="6">
-        <v>-85.06871127991225</v>
+        <v>-85.068711279384814</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
@@ -649,7 +649,7 @@
         <v>d_rate</v>
       </c>
       <c r="B11" s="6">
-        <v>72.993164062499986</v>
+        <v>72.993164062499929</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -659,7 +659,7 @@
         <v>d_spot</v>
       </c>
       <c r="B12" s="6">
-        <v>0.28356237093303999</v>
+        <v>0.28356237093128273</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -669,7 +669,7 @@
         <v>d_vol</v>
       </c>
       <c r="B13" s="6">
-        <v>58.563372397962496</v>
+        <v>58.563372396463812</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -679,7 +679,7 @@
         <v>value</v>
       </c>
       <c r="B14" s="6">
-        <v>4.0251824058040864</v>
+        <v>4.0251824056282954</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>

--- a/miscs/excel/003.european.xlsx
+++ b/miscs/excel/003.european.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\miscs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E811B-918F-4B3B-B613-E905CE4903F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0F165-D9A8-4DFA-964C-6C1F51813DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="script（european）" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -531,15 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE6A4A-66D2-4572-A414-C53951A20964}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="43.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="58.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="38.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="35.75" style="3" customWidth="1"/>
@@ -609,13 +609,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str" cm="1">
-        <f t="array" ref="A7">_xll.PRODUCT.NEW("my_product",A17:A18,B17:B18)</f>
-        <v>~ScriptProduct~my_product~000002B3F3A291F0</v>
+        <f t="array" ref="A7">_xll.PRODUCT.NEW("my_product",A18:A19,B18:B19)</f>
+        <v>~ScriptProduct~my_product~000001CDF0E109F0</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" ref="C7">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData_~model~000002B3F4532E50</v>
+        <v>~BSModelData_~model~000001CE4D6BD970</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -635,7 +635,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f t="array" ref="A10:B14">_xll.MONTECARLO.VALUE(A7,C7,2^13,"sobol",FALSE,TRUE,0.5)</f>
+        <f t="array" ref="A10:B15">_xll.MONTECARLO.VALUE(A7,C7,2^13,"sobol",FALSE,TRUE,0.5)</f>
         <v>d_div</v>
       </c>
       <c r="B10" s="6">
@@ -666,132 +666,157 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <v>d_vol</v>
+        <v>d_STRIKE</v>
       </c>
       <c r="B13" s="6">
-        <v>58.563372396463812</v>
+        <v>-0.2027587890625</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <v>value</v>
+        <v>d_vol</v>
       </c>
       <c r="B14" s="6">
-        <v>4.0251824056282954</v>
+        <v>58.563372396463812</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="str">
+        <v>PV</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4.0251824056282954</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2" t="str" cm="1">
-        <f t="array" ref="C17:C32">_xll.PRODUCT.DEBUG(A7)</f>
+      <c r="C18" s="2" t="str">
+        <f t="array" aca="1" ref="C18:C33" ca="1">_xll.PRODUCT.DEBUG(A7)</f>
+        <v>Var[0] = call</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>45924</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f ca="1"/>
         <v>EventTime_: 2025-09-24	Event_: 1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>45924</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <v>Statement_: 1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="3" t="str">
-        <v>PAYS(</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="str">
-        <v xml:space="preserve">	VAR[call,-1]</v>
+        <f ca="1"/>
+        <v>Statement_: 1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="str">
-        <v>,</v>
+        <f ca="1"/>
+        <v>PAYS(</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="str">
-        <v xml:space="preserve">	MAX(</v>
+        <f ca="1"/>
+        <v xml:space="preserve">	VAR[call,0,0.000000]</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="str">
-        <v xml:space="preserve">		SUBTRACT(</v>
+        <f ca="1"/>
+        <v>,</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C24" s="3" t="str">
-        <v xml:space="preserve">			SPOT</v>
+        <f ca="1"/>
+        <v xml:space="preserve">	MAX(</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C25" s="3" t="str">
-        <v xml:space="preserve">		,</v>
+        <f ca="1"/>
+        <v xml:space="preserve">		SUBTRACT(</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C26" s="3" t="str">
-        <v xml:space="preserve">			CONST[120.000000]</v>
+        <f ca="1"/>
+        <v xml:space="preserve">			SPOT</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C27" s="3" t="str">
-        <v xml:space="preserve">		)</v>
+        <f ca="1"/>
+        <v xml:space="preserve">		,</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="str">
-        <v xml:space="preserve">	,</v>
+        <f ca="1"/>
+        <v xml:space="preserve">			CONST_VAR[STRIKE,0,120.000000]</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="str">
-        <v xml:space="preserve">		CONST[0.000000]</v>
+        <f ca="1"/>
+        <v xml:space="preserve">		)</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="str">
-        <v xml:space="preserve">	)</v>
+        <f ca="1"/>
+        <v xml:space="preserve">	,</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C31" s="3" t="str">
-        <v>)</v>
+        <f ca="1"/>
+        <v xml:space="preserve">		CONST[0.000000]</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="str">
-        <v/>
+        <f ca="1"/>
+        <v xml:space="preserve">	)</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="str">
+        <f ca="1"/>
+        <v>)</v>
       </c>
     </row>
   </sheetData>

--- a/miscs/excel/003.european.xlsx
+++ b/miscs/excel/003.european.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wegam\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0F165-D9A8-4DFA-964C-6C1F51813DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132E5021-B87B-4D81-BF9E-6C0FA6105A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="script（european）" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -235,9 +235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -275,7 +275,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -381,7 +381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -523,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,19 +534,19 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="58.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -556,7 +556,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44829</v>
       </c>
@@ -568,7 +568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" cm="1">
         <f t="array" ref="A3">_xll.EVALUATIONDATE.SET(A2)</f>
         <v>44829</v>
@@ -581,7 +581,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -601,31 +601,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str" cm="1">
-        <f t="array" ref="A7">_xll.PRODUCT.NEW("my_product",A18:A19,B18:B19)</f>
-        <v>~ScriptProduct~my_product~000001CDF0E109F0</v>
+        <f t="array" aca="1" ref="A7" ca="1">_xll.PRODUCT.NEW("my_product",A18:A19,B18:B19)</f>
+        <v>~ScriptProduct~my_product~00000289356BDC50</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="str" cm="1">
-        <f t="array" ref="C7">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData_~model~000001CE4D6BD970</v>
+        <f t="array" aca="1" ref="C7" ca="1">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
+        <v>~BSModelData_~model~00000288B182D6E0</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -633,74 +633,85 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
-        <f t="array" ref="A10:B15">_xll.MONTECARLO.VALUE(A7,C7,2^13,"sobol",FALSE,TRUE,0.5)</f>
+        <f t="array" aca="1" ref="A10:B15" ca="1">_xll.MONTECARLO.VALUE(A7,C7,2^20,"sobol",FALSE,TRUE,0.5)</f>
         <v>d_div</v>
       </c>
       <c r="B10" s="6">
-        <v>-85.068711279384814</v>
+        <f ca="1"/>
+        <v>-22.211921859277005</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
+        <f ca="1"/>
         <v>d_rate</v>
       </c>
       <c r="B11" s="6">
-        <v>72.993164062499929</v>
+        <f ca="1"/>
+        <v>20.318350386946182</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
+        <f ca="1"/>
         <v>d_spot</v>
       </c>
       <c r="B12" s="6">
-        <v>0.28356237093128273</v>
+        <f ca="1"/>
+        <v>0.16681793165917902</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
+        <f ca="1"/>
         <v>d_STRIKE</v>
       </c>
       <c r="B13" s="6">
-        <v>-0.2027587890625</v>
+        <f ca="1"/>
+        <v>-0.12716388702392578</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
+        <f ca="1"/>
         <v>d_vol</v>
       </c>
       <c r="B14" s="6">
-        <v>58.563372396463812</v>
+        <f ca="1"/>
+        <v>28.846891117898117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
+        <f ca="1"/>
         <v>PV</v>
       </c>
       <c r="B15" s="2">
-        <v>4.0251824056282954</v>
+        <f ca="1"/>
+        <v>1.4221267230468104</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,7 +722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
@@ -723,7 +734,7 @@
         <v>Var[0] = call</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45924</v>
       </c>
@@ -735,85 +746,85 @@
         <v>EventTime_: 2025-09-24	Event_: 1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="str">
         <f ca="1"/>
         <v>Statement_: 1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="str">
         <f ca="1"/>
         <v>PAYS(</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="str">
         <f ca="1"/>
         <v xml:space="preserve">	VAR[call,0,0.000000]</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="str">
         <f ca="1"/>
         <v>,</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="str">
         <f ca="1"/>
         <v xml:space="preserve">	MAX(</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="str">
         <f ca="1"/>
         <v xml:space="preserve">		SUBTRACT(</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="str">
         <f ca="1"/>
         <v xml:space="preserve">			SPOT</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="str">
         <f ca="1"/>
         <v xml:space="preserve">		,</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="str">
         <f ca="1"/>
         <v xml:space="preserve">			CONST_VAR[STRIKE,0,120.000000]</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="str">
         <f ca="1"/>
         <v xml:space="preserve">		)</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="str">
         <f ca="1"/>
         <v xml:space="preserve">	,</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="str">
         <f ca="1"/>
         <v xml:space="preserve">		CONST[0.000000]</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="str">
         <f ca="1"/>
         <v xml:space="preserve">	)</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="str">
         <f ca="1"/>
         <v>)</v>

--- a/miscs/excel/003.european.xlsx
+++ b/miscs/excel/003.european.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wegam\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132E5021-B87B-4D81-BF9E-6C0FA6105A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2224273C-841A-4DD4-8ECD-7E0A9546A3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" cm="1">
-        <f t="array" ref="A3">_xll.EVALUATIONDATE.SET(A2)</f>
+        <f t="array" aca="1" ref="A3" ca="1">_xll.EVALUATIONDATE.SET(A2)</f>
         <v>44829</v>
       </c>
       <c r="B3" s="2"/>
@@ -610,12 +610,12 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">_xll.PRODUCT.NEW("my_product",A18:A19,B18:B19)</f>
-        <v>~ScriptProduct~my_product~00000289356BDC50</v>
+        <v>~ScriptProduct~my_product~000001BCD2427F60</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.BSMODELDATA.NEW("model",D2,D3,D4,D5)</f>
-        <v>~BSModelData_~model~00000288B182D6E0</v>
+        <v>~BSModelData_~model~000001BCD1D1E860</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="B10" s="6">
         <f ca="1"/>
-        <v>-22.211921859277005</v>
+        <v>-85.112714289001588</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
@@ -652,7 +652,7 @@
       </c>
       <c r="B11" s="6">
         <f ca="1"/>
-        <v>20.318350386946182</v>
+        <v>73.00792694091794</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -664,7 +664,7 @@
       </c>
       <c r="B12" s="6">
         <f ca="1"/>
-        <v>0.16681793165917902</v>
+        <v>0.28370904763000554</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -676,7 +676,7 @@
       </c>
       <c r="B13" s="6">
         <f ca="1"/>
-        <v>-0.12716388702392578</v>
+        <v>-0.20279979705810547</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="B14" s="6">
         <f ca="1"/>
-        <v>28.846891117898117</v>
+        <v>58.67447714093413</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -700,7 +700,7 @@
       </c>
       <c r="B15" s="2">
         <f ca="1"/>
-        <v>1.4221267230468104</v>
+        <v>4.0349291160278957</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
